--- a/План операций.xlsx
+++ b/План операций.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>№ п/п</t>
   </si>
@@ -46,76 +46,96 @@
     <t>Опер. каб.</t>
   </si>
   <si>
-    <t>Добрянский М.Р.</t>
-  </si>
-  <si>
-    <t>Кузьмин Н.В.</t>
-  </si>
-  <si>
-    <t>Степаненко А.И.</t>
-  </si>
-  <si>
-    <t>Надеин М.А.</t>
-  </si>
-  <si>
-    <t>Амадыев Н.А.</t>
-  </si>
-  <si>
-    <t>0 лет 1 мес.</t>
-  </si>
-  <si>
-    <t>1 лет 1 мес.</t>
-  </si>
-  <si>
-    <t>4 лет 6 мес.</t>
-  </si>
-  <si>
-    <t>7 лет 5 мес.</t>
-  </si>
-  <si>
-    <t>16 лет 11 мес.</t>
-  </si>
-  <si>
-    <t>1605720</t>
-  </si>
-  <si>
-    <t>1612820</t>
-  </si>
-  <si>
-    <t>1612520</t>
-  </si>
-  <si>
-    <t>1612120</t>
-  </si>
-  <si>
-    <t>1615620</t>
-  </si>
-  <si>
-    <t>врожденный пилоростеноз</t>
+    <t>Чепилов А.В.</t>
+  </si>
+  <si>
+    <t>Акритиди М.Г.</t>
+  </si>
+  <si>
+    <t>Бережной А.Ж.</t>
+  </si>
+  <si>
+    <t>Лукьяненко М.Д.</t>
+  </si>
+  <si>
+    <t>Сотникова А.И.</t>
+  </si>
+  <si>
+    <t>Катаргина П.А.</t>
+  </si>
+  <si>
+    <t>Кариофили Э.Г.</t>
+  </si>
+  <si>
+    <t>1 лет 4 мес.</t>
+  </si>
+  <si>
+    <t>1 лет 10 мес.</t>
+  </si>
+  <si>
+    <t>3 лет 10 мес.</t>
+  </si>
+  <si>
+    <t>5 лет 3 мес.</t>
+  </si>
+  <si>
+    <t>5 лет 11 мес.</t>
+  </si>
+  <si>
+    <t>6 лет 1 мес.</t>
+  </si>
+  <si>
+    <t>6 лет 7 мес.</t>
+  </si>
+  <si>
+    <t>1627520</t>
+  </si>
+  <si>
+    <t>1631120</t>
+  </si>
+  <si>
+    <t>1633320</t>
+  </si>
+  <si>
+    <t>1632520</t>
+  </si>
+  <si>
+    <t>1630720</t>
+  </si>
+  <si>
+    <t>1630820</t>
+  </si>
+  <si>
+    <t>1633820</t>
+  </si>
+  <si>
+    <t>Паховая грыжа слева</t>
+  </si>
+  <si>
+    <t>Срединная киста шеи</t>
   </si>
   <si>
     <t>Паховая грыжа справа</t>
   </si>
   <si>
-    <t>Паховая грыжа слева</t>
-  </si>
-  <si>
-    <t>паховая грыжа слева</t>
-  </si>
-  <si>
-    <t>киста копчика</t>
-  </si>
-  <si>
-    <t>пилоромиотомия по Фреде</t>
+    <t>Пупочная грыжа</t>
   </si>
   <si>
     <t>грыжесечение</t>
   </si>
   <si>
-    <t>удаление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шатов Александр Владимирович
+    <t>иссечение кисты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аветисян Самвел Омарович
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пальчиков Александр Вячеславович
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дербок Рустам Асланович
   </t>
   </si>
   <si>
@@ -123,14 +143,14 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">Аветисян Самвел Омарович
+    <t xml:space="preserve"> 
   </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>План операций на 23.09.2020</t>
+    <t>План операций на 25.09.2020</t>
   </si>
   <si>
     <t>Хирургическое отделение №3</t>
@@ -509,15 +529,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -527,7 +559,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -575,24 +607,24 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -603,24 +635,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -631,24 +663,24 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -659,24 +691,24 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -687,24 +719,80 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -712,6 +800,7 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.32" right="0.24" top="0.76" bottom="0.76" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>